--- a/Rent_vs_Buy_Analysis.xlsx
+++ b/Rent_vs_Buy_Analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
   <si>
     <t xml:space="preserve">Equipment Specifics</t>
   </si>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Month 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Expected Ownership Work Hours</t>
+    <t xml:space="preserve">Expected Use Work Hours</t>
   </si>
   <si>
     <t xml:space="preserve">Month 5</t>
@@ -94,10 +94,13 @@
     <t xml:space="preserve">Month 7</t>
   </si>
   <si>
+    <t xml:space="preserve">Expected Years of Use</t>
+  </si>
+  <si>
     <t xml:space="preserve">Month 8</t>
   </si>
   <si>
-    <t xml:space="preserve">Comparison</t>
+    <t xml:space="preserve">Results</t>
   </si>
   <si>
     <t xml:space="preserve">Month 9</t>
@@ -115,63 +118,69 @@
     <t xml:space="preserve">Month 11</t>
   </si>
   <si>
+    <t xml:space="preserve">Depreciation per Work Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash flow Periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarters (3 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above Average Cash flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Value Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Cash flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost per quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost in first quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below Average Cash flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Fees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebates</t>
+  </si>
+  <si>
     <t xml:space="preserve">FCCM per Work Hour</t>
   </si>
   <si>
-    <t xml:space="preserve">Month 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash flow Periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years</t>
+    <t xml:space="preserve">Insurance (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost in subsequent quarters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cost with loan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost per year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ownership Cost Per Work Hour</t>
   </si>
   <si>
     <t xml:space="preserve">Upfront Out -of-Pocket</t>
   </si>
   <si>
-    <t xml:space="preserve">Best Case Cash flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Above Average Cash flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost per quarter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost in first quarter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Cash flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Fees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below Average Cash flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worst Case Cash flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurance (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost in subsequent quarters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cost with loan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost per year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Year 1</t>
   </si>
   <si>
@@ -193,37 +202,67 @@
     <t xml:space="preserve">Year 4</t>
   </si>
   <si>
+    <t xml:space="preserve">NPV Scenarios in quarter of acquisition</t>
+  </si>
+  <si>
     <t xml:space="preserve">Year 5</t>
   </si>
   <si>
+    <t xml:space="preserve">Above Average (Rent)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Year 6</t>
   </si>
   <si>
+    <t xml:space="preserve">Above Average (Finance)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Buy with Financing</t>
   </si>
   <si>
     <t xml:space="preserve">Year 7</t>
   </si>
   <si>
+    <t xml:space="preserve">Above Average (Buy)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Year 8</t>
   </si>
   <si>
+    <t xml:space="preserve">Average (Rent)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Year 9</t>
   </si>
   <si>
+    <t xml:space="preserve">Average (Finance)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sales Tax (%)</t>
   </si>
   <si>
     <t xml:space="preserve">Year 10</t>
   </si>
   <si>
+    <t xml:space="preserve">Average (Buy)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interest Rate</t>
   </si>
   <si>
+    <t xml:space="preserve">Below Average (Rent)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amortization</t>
   </si>
   <si>
+    <t xml:space="preserve">Below Average (Finance)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Down payment (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below Average (Buy)</t>
   </si>
   <si>
     <t xml:space="preserve">Note: Buying outright provides a tax </t>
@@ -248,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
@@ -257,8 +296,9 @@
     <numFmt numFmtId="169" formatCode="#,##0.00"/>
     <numFmt numFmtId="170" formatCode="#,##0"/>
     <numFmt numFmtId="171" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="172" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -341,6 +381,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="16">
@@ -490,7 +536,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -639,6 +685,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -675,15 +725,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -691,76 +745,72 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -886,8 +936,8 @@
   </sheetPr>
   <dimension ref="A4:AA59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y19" activeCellId="0" sqref="Y19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -911,8 +961,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="21" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="17.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="11.54"/>
   </cols>
   <sheetData>
@@ -1038,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="23" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
@@ -1064,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="28" t="n">
-        <f aca="false">G20+(G20*G22)+(G20*G25) + G23 - G24</f>
+        <f aca="false">G28+(G28*G22)+(G28*G25) + G23 - G24</f>
         <v>141297.4</v>
       </c>
       <c r="Q8" s="14"/>
@@ -1084,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="31" t="n">
-        <v>12456</v>
+        <v>10000</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
@@ -1110,7 +1160,7 @@
         <v>14</v>
       </c>
       <c r="P9" s="28" t="n">
-        <f aca="false">P8+(G20*G25)</f>
+        <f aca="false">P8+(G28*G25)</f>
         <v>147470.2</v>
       </c>
       <c r="Q9" s="14"/>
@@ -1130,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="33" t="n">
-        <v>2.8</v>
+        <v>0.83</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
@@ -1152,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="P10" s="28" t="n">
-        <f aca="false">P9+(G20*G25)+(G20*G22)</f>
+        <f aca="false">P9+(G28*G25)+(G28*G22)</f>
         <v>165988.6</v>
       </c>
       <c r="Q10" s="14"/>
@@ -1172,7 +1222,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="17" t="n">
-        <v>1234</v>
+        <v>13000</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
@@ -1194,7 +1244,7 @@
         <v>18</v>
       </c>
       <c r="P11" s="28" t="n">
-        <f aca="false">P10+(G20*G25)+(G20*G22)</f>
+        <f aca="false">P10+(G28*G25)+(G28*G22)</f>
         <v>184507</v>
       </c>
       <c r="Q11" s="14"/>
@@ -1236,7 +1286,7 @@
         <v>20</v>
       </c>
       <c r="P12" s="28" t="n">
-        <f aca="false">P11+(G20*G25)+(G20*G22)</f>
+        <f aca="false">P11+(G28*G25)+(G28*G22)</f>
         <v>203025.4</v>
       </c>
       <c r="Q12" s="14"/>
@@ -1278,7 +1328,7 @@
         <v>22</v>
       </c>
       <c r="P13" s="28" t="n">
-        <f aca="false">P12+(G20*G25)+(G20*G22)</f>
+        <f aca="false">P12+(G28*G25)+(G28*G22)</f>
         <v>221543.8</v>
       </c>
       <c r="Q13" s="14"/>
@@ -1316,7 +1366,7 @@
         <v>23</v>
       </c>
       <c r="P14" s="28" t="n">
-        <f aca="false">P13+(G20*G25)+(G20*G22)</f>
+        <f aca="false">P13+(G28*G25)+(G28*G22)</f>
         <v>240062.2</v>
       </c>
       <c r="Q14" s="14"/>
@@ -1332,8 +1382,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="37" t="n">
+        <f aca="false">C12/C13</f>
+        <v>3.15656565656566</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1342,7 +1397,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="13"/>
       <c r="K15" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L15" s="26" t="n">
         <f aca="false">L8*8</f>
@@ -1351,28 +1406,28 @@
       <c r="M15" s="13"/>
       <c r="N15" s="14"/>
       <c r="O15" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P15" s="28" t="n">
-        <f aca="false">P14+(G20*G25)+(G20*G22)</f>
+        <f aca="false">P14+(G28*G25)+(G28*G22)</f>
         <v>258580.6</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="15"/>
       <c r="S15" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T15" s="30" t="n">
         <f aca="false">T14+($G$46*$G$38)+($G$46*$G$41)</f>
         <v>30813.744</v>
       </c>
       <c r="U15" s="15"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
@@ -1386,7 +1441,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="13"/>
       <c r="K16" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L16" s="26" t="n">
         <f aca="false">L8*9</f>
@@ -1395,44 +1450,44 @@
       <c r="M16" s="13"/>
       <c r="N16" s="14"/>
       <c r="O16" s="27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P16" s="28" t="n">
-        <f aca="false">P15+(G20*G25)+(G20*G22)</f>
+        <f aca="false">P15+(G28*G25)+(G28*G22)</f>
         <v>277099</v>
       </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="15"/>
       <c r="S16" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T16" s="30" t="n">
         <f aca="false">T15+($G$46*$G$38)+($G$46*$G$41)</f>
         <v>32393.936</v>
       </c>
       <c r="U16" s="15"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="6"/>
       <c r="J17" s="13"/>
       <c r="K17" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L17" s="26" t="n">
         <f aca="false">L8*10</f>
@@ -1441,32 +1496,32 @@
       <c r="M17" s="13"/>
       <c r="N17" s="14"/>
       <c r="O17" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P17" s="28" t="n">
-        <f aca="false">P16+(G20*G25)+(G20*G22)</f>
+        <f aca="false">P16+(G28*G25)+(G28*G22)</f>
         <v>295617.4</v>
       </c>
       <c r="Q17" s="14"/>
       <c r="R17" s="15"/>
       <c r="S17" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T17" s="30" t="n">
         <f aca="false">T16+($G$46*$G$38)+($G$46*$G$41)</f>
         <v>33974.128</v>
       </c>
       <c r="U17" s="15"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -1474,7 +1529,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="13"/>
       <c r="K18" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L18" s="26" t="n">
         <f aca="false">L8*11</f>
@@ -1483,34 +1538,34 @@
       <c r="M18" s="13"/>
       <c r="N18" s="14"/>
       <c r="O18" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P18" s="28" t="n">
-        <f aca="false">P17+(G20*G25)+(G20*G22)</f>
+        <f aca="false">P17+(G28*G25)+(G28*G22)</f>
         <v>314135.8</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="15"/>
       <c r="S18" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T18" s="30" t="n">
         <f aca="false">T17+($G$46*$G$38)+($G$46*$G$41)</f>
         <v>35554.32</v>
       </c>
       <c r="U18" s="15"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="39"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -1518,7 +1573,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="13"/>
       <c r="K19" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L19" s="26" t="n">
         <f aca="false">L8*12</f>
@@ -1527,44 +1582,42 @@
       <c r="M19" s="13"/>
       <c r="N19" s="14"/>
       <c r="O19" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P19" s="28" t="n">
-        <f aca="false">P18+(G20*G25)+(G20*G22)</f>
+        <f aca="false">P18+(G28*G25)+(G28*G22)</f>
         <v>332654.2</v>
       </c>
       <c r="Q19" s="14"/>
       <c r="R19" s="15"/>
       <c r="S19" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19" s="30" t="n">
         <f aca="false">T18+($G$46*$G$38)+($G$46*$G$41)</f>
         <v>37134.512</v>
       </c>
       <c r="U19" s="15"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="39"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="47" t="n">
+        <f aca="false">(((C7)*(1-C8))-((C10)*(C11)))/10000</f>
+        <v>8.79748</v>
+      </c>
+      <c r="AA19" s="40"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44"/>
-      <c r="B20" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="48" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="C20" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="45"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="50" t="n">
-        <f aca="false">C7</f>
-        <v>123456</v>
-      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="6"/>
       <c r="J20" s="13"/>
@@ -1579,23 +1632,23 @@
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="39"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44"/>
-      <c r="B21" s="47" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="51" t="n">
-        <v>1234</v>
-      </c>
-      <c r="D21" s="44"/>
+      <c r="C21" s="50" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D21" s="45"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="6"/>
       <c r="J21" s="13"/>
@@ -1610,64 +1663,69 @@
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="39"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="40"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44"/>
-      <c r="B22" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="51" t="n">
-        <v>1234</v>
-      </c>
-      <c r="D22" s="44"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="50" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D22" s="45"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="53" t="n">
+      <c r="G22" s="52" t="n">
         <v>0.1</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="6"/>
       <c r="J22" s="13"/>
       <c r="K22" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="13"/>
       <c r="N22" s="14"/>
       <c r="O22" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="15"/>
       <c r="S22" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T22" s="10"/>
       <c r="U22" s="15"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="39"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="53" t="n">
+        <f aca="false">((C15-1)*(1+C8)+2)/(2*C15)</f>
+        <v>0.72672</v>
+      </c>
+      <c r="AA22" s="40"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44"/>
-      <c r="B23" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="51" t="n">
-        <v>1234</v>
-      </c>
-      <c r="D23" s="44"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="50" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D23" s="45"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="49" t="s">
-        <v>41</v>
+      <c r="F23" s="51" t="s">
+        <v>42</v>
       </c>
       <c r="G23" s="54" t="n">
         <v>123</v>
@@ -1682,7 +1740,7 @@
       </c>
       <c r="M23" s="13"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="49"/>
+      <c r="O23" s="51"/>
       <c r="P23" s="57" t="n">
         <f aca="false">P10</f>
         <v>165988.6</v>
@@ -1695,23 +1753,23 @@
         <v>22912.784</v>
       </c>
       <c r="U23" s="15"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44"/>
-      <c r="B24" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="51" t="n">
-        <v>1234</v>
-      </c>
-      <c r="D24" s="44"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="45"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="49" t="s">
-        <v>43</v>
+      <c r="F24" s="51" t="s">
+        <v>44</v>
       </c>
       <c r="G24" s="54" t="n">
         <v>800</v>
@@ -1730,25 +1788,23 @@
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="40"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44"/>
-      <c r="B25" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="51" t="n">
-        <v>1234</v>
-      </c>
-      <c r="D25" s="44"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="53" t="n">
+      <c r="F25" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="52" t="n">
         <v>0.05</v>
       </c>
       <c r="H25" s="14"/>
@@ -1765,21 +1821,24 @@
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="63" t="n">
+        <f aca="false">(C7*Z22*0.028)/C13</f>
+        <v>1.58592325818182</v>
+      </c>
+      <c r="AA25" s="40"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="53" t="n">
+      <c r="F26" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="52" t="n">
         <v>0.03</v>
       </c>
       <c r="H26" s="14"/>
@@ -1790,69 +1849,76 @@
       <c r="M26" s="13"/>
       <c r="N26" s="14"/>
       <c r="O26" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="15"/>
       <c r="S26" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T26" s="10"/>
       <c r="U26" s="15"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="40"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="14"/>
       <c r="I27" s="6"/>
       <c r="J27" s="13"/>
       <c r="K27" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="13"/>
       <c r="N27" s="14"/>
-      <c r="O27" s="49"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="57" t="n">
-        <f aca="false">(G20*G25)+(G20*G22)</f>
+        <f aca="false">(G28*G25)+(G28*G22)</f>
         <v>18518.4</v>
       </c>
       <c r="Q27" s="14"/>
       <c r="R27" s="15"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="62" t="n">
+      <c r="S27" s="58"/>
+      <c r="T27" s="59" t="n">
         <f aca="false">T19*G39 + (T33*G39)</f>
         <v>204190.96</v>
       </c>
       <c r="U27" s="15"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="40"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="63"/>
+      <c r="F28" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="66" t="n">
+        <f aca="false">C7</f>
+        <v>123456</v>
+      </c>
       <c r="H28" s="14"/>
       <c r="I28" s="6"/>
       <c r="J28" s="13"/>
       <c r="K28" s="25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L28" s="26" t="n">
         <f aca="false">L19</f>
@@ -1864,19 +1930,22 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="15"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="63" t="n">
+        <f aca="false">Z25+Z19</f>
+        <v>10.3834032581818</v>
+      </c>
+      <c r="AA28" s="40"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -1884,7 +1953,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="13"/>
       <c r="K29" s="25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L29" s="26" t="n">
         <f aca="false">L28*2</f>
@@ -1893,26 +1962,26 @@
       <c r="M29" s="13"/>
       <c r="N29" s="14"/>
       <c r="O29" s="21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="15"/>
-      <c r="S29" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="T29" s="64"/>
+      <c r="S29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="40"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -1920,7 +1989,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="13"/>
       <c r="K30" s="25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L30" s="26" t="n">
         <f aca="false">L28*3</f>
@@ -1928,28 +1997,28 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="66" t="n">
+      <c r="O30" s="51"/>
+      <c r="P30" s="57" t="n">
         <f aca="false">(C7*G26)</f>
         <v>3703.68</v>
       </c>
       <c r="Q30" s="14"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="T30" s="64"/>
+      <c r="S30" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T30" s="15"/>
       <c r="U30" s="15"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="40"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -1957,7 +2026,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="13"/>
       <c r="K31" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L31" s="26" t="n">
         <f aca="false">L28*4</f>
@@ -1965,23 +2034,25 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="14"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
       <c r="R31" s="15"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="64"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
       <c r="U31" s="15"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="40"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -1989,7 +2060,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="13"/>
       <c r="K32" s="25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L32" s="26" t="n">
         <f aca="false">L28*5</f>
@@ -1998,26 +2069,31 @@
       <c r="M32" s="13"/>
       <c r="N32" s="14"/>
       <c r="O32" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="14"/>
       <c r="R32" s="15"/>
       <c r="S32" s="22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T32" s="10"/>
       <c r="U32" s="15"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z32" s="63" t="n">
+        <f aca="false">NPV(C24,C21-L23)</f>
+        <v>210472.727272727</v>
+      </c>
+      <c r="AA32" s="40"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -2025,7 +2101,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="13"/>
       <c r="K33" s="25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L33" s="26" t="n">
         <f aca="false">L28*6</f>
@@ -2034,7 +2110,7 @@
       <c r="M33" s="13"/>
       <c r="N33" s="14"/>
       <c r="O33" s="67" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P33" s="28" t="n">
         <f aca="false">P19+$P$30</f>
@@ -2042,28 +2118,33 @@
       </c>
       <c r="Q33" s="14"/>
       <c r="R33" s="15"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="62" t="n">
+      <c r="S33" s="58"/>
+      <c r="T33" s="59" t="n">
         <f aca="false">C7*G26</f>
         <v>3703.68</v>
       </c>
       <c r="U33" s="15"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z33" s="63" t="n">
+        <f aca="false">NPV(C24,C21-T23)</f>
+        <v>206442.923636364</v>
+      </c>
+      <c r="AA33" s="40"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="10"/>
       <c r="F34" s="11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="6"/>
       <c r="J34" s="13"/>
       <c r="K34" s="25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L34" s="26" t="n">
         <f aca="false">L28*7</f>
@@ -2072,7 +2153,7 @@
       <c r="M34" s="13"/>
       <c r="N34" s="14"/>
       <c r="O34" s="67" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P34" s="28" t="n">
         <f aca="false">($P$27*4)+$P$30</f>
@@ -2080,13 +2161,18 @@
       </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="15"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
       <c r="U34" s="15"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z34" s="63" t="n">
+        <f aca="false">NPV(C24,C21-P23)</f>
+        <v>76374</v>
+      </c>
+      <c r="AA34" s="40"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="15"/>
@@ -2096,7 +2182,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="13"/>
       <c r="K35" s="25" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L35" s="26" t="n">
         <f aca="false">L28*8</f>
@@ -2105,7 +2191,7 @@
       <c r="M35" s="13"/>
       <c r="N35" s="14"/>
       <c r="O35" s="67" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P35" s="28" t="n">
         <f aca="false">($P$27*4)+$P$30</f>
@@ -2113,13 +2199,18 @@
       </c>
       <c r="Q35" s="14"/>
       <c r="R35" s="15"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
       <c r="U35" s="15"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z35" s="63" t="n">
+        <f aca="false">NPV(C24, C22-L23)</f>
+        <v>119563.636363636</v>
+      </c>
+      <c r="AA35" s="40"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="15"/>
@@ -2129,7 +2220,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="13"/>
       <c r="K36" s="25" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L36" s="26" t="n">
         <f aca="false">L28*9</f>
@@ -2138,7 +2229,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="14"/>
       <c r="O36" s="67" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P36" s="28" t="n">
         <f aca="false">($P$27*4)+$P$30</f>
@@ -2147,28 +2238,33 @@
       <c r="Q36" s="14"/>
       <c r="R36" s="15"/>
       <c r="S36" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T36" s="10"/>
       <c r="U36" s="15"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z36" s="63" t="n">
+        <f aca="false">NPV(C24,C22-T23)</f>
+        <v>115533.832727273</v>
+      </c>
+      <c r="AA36" s="40"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="15"/>
       <c r="F37" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="68" t="n">
+        <v>72</v>
+      </c>
+      <c r="G37" s="69" t="n">
         <v>0.05</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="6"/>
       <c r="J37" s="13"/>
       <c r="K37" s="25" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="L37" s="26" t="n">
         <f aca="false">L28*10</f>
@@ -2177,7 +2273,7 @@
       <c r="M37" s="13"/>
       <c r="N37" s="14"/>
       <c r="O37" s="67" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P37" s="28" t="n">
         <f aca="false">($P$27*4)+$P$30</f>
@@ -2186,35 +2282,40 @@
       <c r="Q37" s="14"/>
       <c r="R37" s="15"/>
       <c r="S37" s="29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T37" s="30" t="n">
         <f aca="false">$T$27/5</f>
         <v>40838.192</v>
       </c>
       <c r="U37" s="15"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z37" s="63" t="n">
+        <f aca="false">NPV(C24,C22-P23)</f>
+        <v>-14535.0909090909</v>
+      </c>
+      <c r="AA37" s="40"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="15"/>
       <c r="F38" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="68" t="n">
+        <v>75</v>
+      </c>
+      <c r="G38" s="69" t="n">
         <v>0.06</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="6"/>
       <c r="J38" s="13"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="71"/>
       <c r="M38" s="13"/>
       <c r="N38" s="14"/>
       <c r="O38" s="67" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P38" s="28" t="n">
         <f aca="false">($P$27*4)+$P$30</f>
@@ -2223,35 +2324,40 @@
       <c r="Q38" s="14"/>
       <c r="R38" s="15"/>
       <c r="S38" s="29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T38" s="30" t="n">
         <f aca="false">$T$27/5</f>
         <v>40838.192</v>
       </c>
       <c r="U38" s="15"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="39"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z38" s="63" t="n">
+        <f aca="false">NPV(C24,C23-L23)</f>
+        <v>74109.0909090909</v>
+      </c>
+      <c r="AA38" s="40"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="15"/>
       <c r="F39" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="71" t="n">
+        <v>77</v>
+      </c>
+      <c r="G39" s="72" t="n">
         <v>5</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="6"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="71"/>
       <c r="M39" s="13"/>
       <c r="N39" s="14"/>
       <c r="O39" s="67" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P39" s="28" t="n">
         <f aca="false">($P$27*4)+$P$30</f>
@@ -2260,81 +2366,91 @@
       <c r="Q39" s="14"/>
       <c r="R39" s="15"/>
       <c r="S39" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T39" s="30" t="n">
         <f aca="false">$T$27/5</f>
         <v>40838.192</v>
       </c>
       <c r="U39" s="15"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z39" s="63" t="n">
+        <f aca="false">NPV(C24, C23-T23)</f>
+        <v>70079.2872727273</v>
+      </c>
+      <c r="AA39" s="40"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="15"/>
       <c r="F40" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="68" t="n">
+        <v>79</v>
+      </c>
+      <c r="G40" s="69" t="n">
         <v>0.1</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="6"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="71"/>
       <c r="M40" s="13"/>
       <c r="N40" s="14"/>
       <c r="O40" s="67" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P40" s="28" t="n">
         <f aca="false">($P$27*4)+$P$30</f>
         <v>77777.28</v>
       </c>
-      <c r="Q40" s="52"/>
+      <c r="Q40" s="14"/>
       <c r="R40" s="15"/>
       <c r="S40" s="29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T40" s="30" t="n">
         <f aca="false">$T$27/5</f>
         <v>40838.192</v>
       </c>
       <c r="U40" s="15"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
-      <c r="AA40" s="39"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z40" s="63" t="n">
+        <f aca="false">NPV(C24,C23-P23)</f>
+        <v>-59989.6363636363</v>
+      </c>
+      <c r="AA40" s="40"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="15"/>
       <c r="F41" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="68" t="n">
+        <v>46</v>
+      </c>
+      <c r="G41" s="69" t="n">
         <v>0.02</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="6"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="71"/>
       <c r="M41" s="13"/>
       <c r="N41" s="14"/>
       <c r="O41" s="67" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="P41" s="28" t="n">
         <f aca="false">($P$27*4)+$P$30</f>
         <v>77777.28</v>
       </c>
-      <c r="Q41" s="52"/>
+      <c r="Q41" s="14"/>
       <c r="R41" s="15"/>
       <c r="S41" s="29" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="T41" s="30" t="n">
         <f aca="false">$T$27/5</f>
@@ -2345,20 +2461,20 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="15"/>
       <c r="F42" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="72" t="n">
+        <v>42</v>
+      </c>
+      <c r="G42" s="73" t="n">
         <v>1234</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="6"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="71"/>
       <c r="M42" s="13"/>
       <c r="N42" s="14"/>
       <c r="O42" s="67" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P42" s="28" t="n">
         <f aca="false">($P$27*4)+$P$30</f>
@@ -2367,7 +2483,7 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="15"/>
       <c r="S42" s="29" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T42" s="30" t="n">
         <f aca="false">$T$33+($G$41*$C$7)</f>
@@ -2378,9 +2494,9 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="15"/>
       <c r="F43" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="68" t="n">
+        <v>47</v>
+      </c>
+      <c r="G43" s="69" t="n">
         <v>0.03</v>
       </c>
       <c r="H43" s="15"/>
@@ -2395,7 +2511,7 @@
       <c r="Q43" s="14"/>
       <c r="R43" s="15"/>
       <c r="S43" s="29" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T43" s="30" t="n">
         <f aca="false">$T$33+($G$41*$C$7)</f>
@@ -2405,8 +2521,8 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="15"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="6"/>
       <c r="J44" s="13"/>
@@ -2414,25 +2530,26 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="14"/>
-      <c r="O44" s="73" t="s">
-        <v>68</v>
+      <c r="O44" s="74" t="s">
+        <v>81</v>
       </c>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="15"/>
       <c r="S44" s="29" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T44" s="30" t="n">
         <f aca="false">$T$33+($G$41*$C$7)</f>
         <v>6172.8</v>
       </c>
       <c r="U44" s="15"/>
+      <c r="Z44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="15"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="76"/>
       <c r="H45" s="15"/>
       <c r="I45" s="6"/>
       <c r="J45" s="13"/>
@@ -2440,14 +2557,14 @@
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="14"/>
-      <c r="O45" s="73" t="s">
-        <v>69</v>
+      <c r="O45" s="74" t="s">
+        <v>82</v>
       </c>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
       <c r="R45" s="15"/>
       <c r="S45" s="29" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="T45" s="30" t="n">
         <f aca="false">$T$33+($G$41*$C$7)</f>
@@ -2458,9 +2575,9 @@
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="15"/>
       <c r="F46" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" s="76" t="n">
+        <v>52</v>
+      </c>
+      <c r="G46" s="77" t="n">
         <f aca="false">(C7*G40) + G42 + (C7*G37)</f>
         <v>19752.4</v>
       </c>
@@ -2471,12 +2588,12 @@
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="14"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
       <c r="R46" s="15"/>
       <c r="S46" s="29" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="T46" s="30" t="n">
         <f aca="false">$T$33+($G$41*$C$7)</f>
@@ -2486,8 +2603,8 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="15"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="6"/>
       <c r="J47" s="13"/>
@@ -2495,8 +2612,8 @@
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="14"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
@@ -2505,8 +2622,8 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="15"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="6"/>
       <c r="J48" s="13"/>
@@ -2514,22 +2631,22 @@
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="14"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
       <c r="R48" s="15"/>
-      <c r="S48" s="77" t="s">
-        <v>70</v>
+      <c r="S48" s="78" t="s">
+        <v>83</v>
       </c>
       <c r="T48" s="15"/>
       <c r="U48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="15"/>
-      <c r="F49" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" s="75"/>
+      <c r="F49" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="76"/>
       <c r="H49" s="15"/>
       <c r="I49" s="6"/>
       <c r="J49" s="13"/>
@@ -2541,18 +2658,18 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
       <c r="R49" s="15"/>
-      <c r="S49" s="77" t="s">
-        <v>72</v>
+      <c r="S49" s="78" t="s">
+        <v>85</v>
       </c>
       <c r="T49" s="15"/>
       <c r="U49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="15"/>
-      <c r="F50" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="75"/>
+      <c r="F50" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="76"/>
       <c r="H50" s="15"/>
       <c r="I50" s="6"/>
       <c r="J50" s="13"/>
@@ -2564,8 +2681,8 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
       <c r="R50" s="15"/>
-      <c r="S50" s="64"/>
-      <c r="T50" s="64"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
       <c r="U50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,8 +2700,8 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
       <c r="R51" s="15"/>
-      <c r="S51" s="64"/>
-      <c r="T51" s="64"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
       <c r="U51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,14 +2719,14 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
       <c r="R52" s="15"/>
-      <c r="S52" s="64"/>
-      <c r="T52" s="64"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
       <c r="U52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R53" s="15"/>
-      <c r="S53" s="64"/>
-      <c r="T53" s="64"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
       <c r="U53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,13 +2766,17 @@
       <c r="U59" s="15"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C8:C10" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C20" type="list">
-      <formula1>"Months,Quarters (3 months),Years"</formula1>
+      <formula1>",Quarters (3 months),"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G39" type="list">
+      <formula1>"5"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
